--- a/users.xlsx
+++ b/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>luckyreddydream11@gmail.com</t>
+  </si>
+  <si>
+    <t>"5f05af6804dfeb226c3c42df"</t>
+  </si>
+  <si>
+    <t>Efehi</t>
+  </si>
+  <si>
+    <t>efehi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -417,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="100" customWidth="1"/>
@@ -465,6 +474,20 @@
         <v>919876543210</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>918876543210</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
